--- a/biology/Médecine/Nomenclature_générale_des_actes_professionnels/Nomenclature_générale_des_actes_professionnels.xlsx
+++ b/biology/Médecine/Nomenclature_générale_des_actes_professionnels/Nomenclature_générale_des_actes_professionnels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nomenclature_g%C3%A9n%C3%A9rale_des_actes_professionnels</t>
+          <t>Nomenclature_générale_des_actes_professionnels</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nomenclature générale des actes professionnels (NGAP) est un système de cotation d'actes médicaux et paramédicaux du secteur libéral, permettant notamment de tarifier son activité au patient et aux caisses d'assurance maladie obligatoire (AMO) et complémentaire (AMC).
 Remplacée dans une très large mesure par la classification commune des actes médicaux (CCAM) pour les actes techniques médicaux, elle est encore majoritairement utilisée par les auxiliaires médicaux. Toutefois, les chirurgiens-dentistes et les sages-femmes, professions médicales, l'utilisent encore. Concernant spécifiquement les chirurgiens-dentistes par exemple, les actes d'orthopédie dento-faciale (ODF) restent répertoriés dans la NGAP, alors que les autres actes techniques dentaires ont « basculé » dans la CCAM en 2014. 
